--- a/results/pseudomonas_putida/Phase_Study/NBR_condition-specific_enrichment_analysis.xlsx
+++ b/results/pseudomonas_putida/Phase_Study/NBR_condition-specific_enrichment_analysis.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lb-wt_transition_phase_Presence" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lb-wt_exponential_phase_Presence" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lb-wt_stationary_phase_Presence" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lb-wt_transition_phase" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lb-wt_exponential_phase" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lb-wt_stationary_phase" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,287 +459,287 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S_Transport__ABC_system</t>
+          <t>S_Fatty_Acid_Metabolism</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5.868349452598606e-62</v>
+        <v>1.458810184814787e-36</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6050955414012739</v>
+        <v>0.638095238095238</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6050955414012739</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Amines_and_Polyamines_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Dipeptide_Metabolism</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6.297146623695558e-38</v>
+        <v>1.011200288367202e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.875</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8571428571428571</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S_Transport__Inner_Membrane</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Amines_and_Polyamines_Metabolism</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.522978246419573e-34</v>
+        <v>5.106118192904846e-08</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4961240310077519</v>
+        <v>0.65</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4961240310077519</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>S_Aromatic_Compounds_Degradation__B_Ketoadipate_pathway</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1.594029321114124e-06</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="E5" t="n">
         <v>26</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Unassigned</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1.677822899690599e-18</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>S_Glycerophospholipid_Metabolism</t>
+          <t>S_Alternate_Carbon__Ascorbate_and_Aldarate_Metabolism</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3.027533214475947e-15</v>
+        <v>2.943347093163267e-06</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6896551724137931</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6896551724137931</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>S_Transport__Outer_Membrane</t>
+          <t>S_Alternate_Carbon__Levulinate_Metabolism</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.219421872421655e-12</v>
+        <v>0.0003169048145953981</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.875</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5555555555555556</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>S_Sulfur_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__D_Amino_acids_Metabolism</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.40390374143771e-12</v>
+        <v>0.0006226342816443558</v>
       </c>
       <c r="D8" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E8" t="n">
-        <v>0.75</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__B_Ketoadipate_pathway</t>
+          <t>Aliphatic open-chain ketones metabolism</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8.689414526510697e-12</v>
+        <v>0.0008546072768132277</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6071428571428571</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6071428571428571</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Ascorbate_and_Aldarate_Metabolism</t>
+          <t>S_Glycerophospholipid_Metabolism</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3.206548048198003e-10</v>
+        <v>0.003079645188516664</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0.3419354838709677</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>S_Plant_growth_promoting</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.003518333901584598</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
         <v>4</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__D_Amino_acids_Metabolism</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>4.182877589817329e-08</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>S_Valine__Leucine__and_Isoleucine_Metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Gallic_acid_Metabolism</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.14677970206616e-07</v>
+        <v>0.003518333901584598</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5217391304347826</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5217391304347826</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>S_Fatty_Acid_Metabolism</t>
+          <t>S_Sulfur_Metabolism</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.14677970206616e-07</v>
+        <v>0.01201986090483076</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5217391304347826</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5217391304347826</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>S_Xenobiotic_tolerance</t>
+          <t>S_Alternate_Carbon__Fructose_Metabolism</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4.745554953868564e-07</v>
+        <v>0.01446921002564467</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7272727272727273</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7272727272727273</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>S_Alginate_biosynthesis</t>
+          <t>S_Transport__ABC_system</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.220302417074782e-06</v>
+        <v>0.02216409307415984</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.3211678832116788</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4782608695652174</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Butanediol_Metabolism</t>
+          <t>S_Nitrogen_Metabolism</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5.415788436929414e-06</v>
+        <v>0.0473218383978249</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -748,250 +748,250 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Fructose_Metabolism</t>
+          <t>S_Alternate_Carbon__Butanediol_Metabolism</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5.415788436929414e-06</v>
+        <v>0.05944162826546442</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>S_Heavy_Metal_Tolerance</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6.746239622864493e-06</v>
+        <v>0.05944162826546442</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4545454545454545</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4545454545454545</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Dipeptide_Metabolism</t>
+          <t>S_Urea_cycleamino_group_metabolism</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3.011271897770305e-05</v>
+        <v>0.06486490280590611</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8333333333333334</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Gallic_acid_Metabolism</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6.145261981495417e-05</v>
+        <v>0.06581058900085003</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>S_Plant_growth_promoting</t>
+          <t>S_Heavy_Metal_Tolerance</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>6.145261981495417e-05</v>
+        <v>0.06757056558412863</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>S_Alternate_Carbon</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>6.145261981495417e-05</v>
+        <v>0.07189021219327152</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>S_Phenylalanine_Tyrosine_Tryptophan_Biosynthesis</t>
+          <t>S_Xenobiotic_tolerance</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.0001236750119756248</v>
+        <v>0.1047160745449152</v>
       </c>
       <c r="D23" t="n">
-        <v>0.375</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="E23" t="n">
-        <v>0.375</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Nucleotide_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Hydroxy_proline_metabolism</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.0004740348942423656</v>
+        <v>0.1493864647451039</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4615384615384616</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>S_Butanoate_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Nicotinamide_Biosynthesis</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.000503755636208621</v>
+        <v>0.1905814890513579</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5555555555555556</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Vitamin_B6_Metabolism</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.000503755636208621</v>
+        <v>0.2098206861438054</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.4</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5555555555555556</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>S_Purine_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Ectoine_Metabolism</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.0006719812810549268</v>
+        <v>0.2514510910923829</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2407407407407407</v>
+        <v>0.5</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2407407407407407</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>S_Methionine_Metabolism</t>
+          <t>S_Phenylalanine_Tyrosine_Tryptophan_Biosynthesis</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.0007678383975687583</v>
+        <v>0.3292293203209078</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4285714285714285</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>S_Alginate_biosynthesis</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.3807840534384075</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="E29" t="n">
         <v>40</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>S_Pyrimidine_Metabolism</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>0.0008341914021419307</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -999,151 +999,151 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.001158577563472041</v>
+        <v>0.3953657343346761</v>
       </c>
       <c r="D30" t="n">
-        <v>0.35</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="E30" t="n">
-        <v>0.35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>S_Cysteine_Metabolism</t>
+          <t>S_Formaldehyde_Metabolism</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.005384670718907251</v>
+        <v>0.4517072920894112</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4444444444444444</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Levulinate_Metabolism</t>
+          <t>S_Pyruvate_Metabolism</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.006070746549302765</v>
+        <v>0.4517072920894112</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis</t>
+          <t>S_Transport__solvent_extrusion</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.006070746549302765</v>
+        <v>0.4557683530491556</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>S_Lysine_Metabolism</t>
+          <t>S_Methionine_Metabolism</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.006902790812915381</v>
+        <v>0.4573210502721413</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2424242424242424</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2424242424242424</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Peptidoglycan_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Molybdopterin_Biosynthesis</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.01157092325479165</v>
+        <v>0.4573210502721413</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2413793103448276</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2413793103448276</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>S_Transport__solvent_extrusion</t>
+          <t>S_Cell_Envelope_Biosynthesis__Peptidoglycan_Biosynthesis</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.01748801811356882</v>
+        <v>0.4813106597458016</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.2549019607843137</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2777777777777778</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Hydroxy_proline_metabolism</t>
+          <t>S_Valine__Leucine__and_Isoleucine_Metabolism</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.02221271658576182</v>
+        <v>0.4925553481909479</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="E37" t="n">
-        <v>0.6666666666666666</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1151,649 +1151,649 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.02355112472527895</v>
+        <v>0.5046508279769418</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2307692307692308</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Porphyrin_and_Chlorophyll_Metabolism</t>
+          <t>S_Starch_and_Sucrose_Metabolism</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.03142744536738773</v>
+        <v>0.516954226134055</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="E39" t="n">
-        <v>0.2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>S_Iron_uptake_and_metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Nucleotide_Metabolism</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.03740957667676767</v>
+        <v>0.516954226134055</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1730769230769231</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1730769230769231</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>S_Arginine_and_Proline_Metabolism</t>
+          <t>S_Transport__Inner_Membrane</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.03878754001193174</v>
+        <v>0.5236641556579655</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2068965517241379</v>
+        <v>0.2442396313364055</v>
       </c>
       <c r="E41" t="n">
-        <v>0.2068965517241379</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Vitamin_B6_Metabolism</t>
+          <t>S_Transport__Outer_Membrane</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.03895131687487272</v>
+        <v>0.617162011360771</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2384105960264901</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3333333333333333</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Nicotinamide_Biosynthesis</t>
+          <t>S_Alanine_and_Aspartate_Metabolism</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.03895131687487272</v>
+        <v>0.61793570807832</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3333333333333333</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>S_Nitrogen_Metabolism</t>
+          <t>S_Cysteine_Metabolism</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.04182577458460631</v>
+        <v>0.61793570807832</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>S_Pyruvate_Metabolism</t>
+          <t>S_Histidine_Metabolism</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.05206548656502131</v>
+        <v>0.6257750630798072</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>S_Histidine_Metabolism</t>
+          <t>S_Phosphonate_and_phosphinate_metabolism</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.05762027355243628</v>
+        <v>0.6734518182617778</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.25</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2352941176470588</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>S_Alanine_and_Aspartate_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.06700900500696004</v>
+        <v>0.6734518182617778</v>
       </c>
       <c r="D47" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.25</v>
       </c>
       <c r="E47" t="n">
-        <v>0.2727272727272727</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>S_PHAs_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Porphyrin_and_Chlorophyll_Metabolism</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.06700900500696004</v>
+        <v>0.7434755221146138</v>
       </c>
       <c r="D48" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2727272727272727</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Toluene_Pathway</t>
+          <t>S_Glycine__Serine_and_threonine_metabolism</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.08878504672897196</v>
+        <v>0.747812617920155</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Aliphatic open-chain ketones metabolism</t>
+          <t>S_Purine_Metabolism</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.08878504672897196</v>
+        <v>0.8100576958693368</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0.2077922077922078</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Ectoine_Metabolism</t>
+          <t>S_Pyrimidine_Metabolism</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.09282123056192315</v>
+        <v>0.8133688595586014</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3333333333333333</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>S_Glycine__Serine_and_threonine_metabolism</t>
+          <t>S_Alternate_Carbon__Propanoate_Metabolism</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.141612689352237</v>
+        <v>0.8591023323552279</v>
       </c>
       <c r="D52" t="n">
-        <v>0.1739130434782609</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1739130434782609</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Homogentisate_pathway</t>
+          <t>S_Cell_Envelope_Biosynthesis</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.154114932141681</v>
+        <v>0.8635567891471027</v>
       </c>
       <c r="D53" t="n">
-        <v>0.25</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="E53" t="n">
-        <v>0.25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>S_Phosphonate_and_phosphinate_metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis__O_antigen_Biosynthesis</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.2434464194895634</v>
+        <v>0.91250124810205</v>
       </c>
       <c r="D54" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3333333333333333</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis</t>
+          <t>S_Arginine_and_Proline_Metabolism</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.2596556880255874</v>
+        <v>0.9374778558835923</v>
       </c>
       <c r="D55" t="n">
-        <v>0.15</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E55" t="n">
-        <v>0.15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>S_Glyoxylate_and_dicarboxylate_metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis__LPS_Biosynthesis</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.2891764216058904</v>
+        <v>0.9802553362554243</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1666666666666667</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>S_Formaldehyde_Metabolism</t>
+          <t>S_TCA_Cycle</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.2891764216058904</v>
+        <v>0.9963521999340318</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.05</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1666666666666667</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Biosynthesis_of_L_glycero_D_manno_heptose__Hep_</t>
+          <t>S_Aromatic_Compounds_Degradation__Toluene_Pathway</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.3106533011245492</v>
+        <v>0.9976584382763557</v>
       </c>
       <c r="D58" t="n">
-        <v>0.25</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E58" t="n">
-        <v>0.25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Molybdopterin_Biosynthesis</t>
+          <t>S_PHAs_Metabolism</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.3232320075884187</v>
+        <v>0.9984633365533704</v>
       </c>
       <c r="D59" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.1513157894736842</v>
       </c>
       <c r="E59" t="n">
-        <v>0.1538461538461539</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>S_Urea_cycleamino_group_metabolism</t>
+          <t>S_Fatty_Acid__Biosynthesis</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.4220778751050726</v>
+        <v>0.9992923952357875</v>
       </c>
       <c r="D60" t="n">
-        <v>0.125</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="E60" t="n">
-        <v>0.125</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Propanoate_Metabolism</t>
+          <t>S_Iron_uptake_and_metabolism</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.4277169675919965</v>
+        <v>0.9994170514163865</v>
       </c>
       <c r="D61" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="E61" t="n">
-        <v>0.1666666666666667</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Nicotinic_acid_pathway</t>
+          <t>S_Lysine_Metabolism</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.4785819942219989</v>
+        <v>0.9999073295727944</v>
       </c>
       <c r="D62" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="E62" t="n">
-        <v>0.1428571428571428</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__FeS_clusters_metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Pantothenate_and_CoA_Biosynthesis</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.4785819942219989</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>0.1428571428571428</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__LPS_Biosynthesis</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.4785819942219989</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1428571428571428</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Queuosine_biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__FeS_clusters_metabolism</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.4785819942219989</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1428571428571428</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>S_Fatty_Acid__Biosynthesis</t>
+          <t>S_Pentose_Phosphate_Pathway</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.6644675981935264</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>0.08</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>S_Starch_and_Sucrose_Metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis__Lipid_A_Biosynthesis</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.7283570276613202</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>0.07142857142857142</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>0.07142857142857142</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Folate_Biosynthesis</t>
+          <t>S_Glutamate_Metabolism</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.7283570276613202</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>0.07142857142857142</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>0.07142857142857142</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__O_antigen_Biosynthesis</t>
+          <t>S_Aromatic_Compounds_Degradation__Nicotinic_acid_pathway</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.7283570276613202</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>0.07142857142857142</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0.07142857142857142</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>S_Glycolysis</t>
+          <t>S_Cell_Envelope_Biosynthesis__Biosynthesis_of_L_glycero_D_manno_heptose__Hep_</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.8931450042533995</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>0.04166666666666666</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>0.04166666666666666</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>S_TCA_Cycle</t>
+          <t>S_Butanoate_Metabolism</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.9264642223701405</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>0.03571428571428571</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0.03571428571428571</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Riboflavin_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__One_Carbon_pool_by_folate</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -1803,16 +1803,16 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis___Pyrroloquinoline_quinone_biosynthesis</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -1822,16 +1822,16 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>348</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Biotin_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis___Pyrroloquinoline_quinone_biosynthesis</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -1841,16 +1841,16 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Ribose_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Ubiquinone_biosynthesis</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -1860,16 +1860,16 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>S_Inorganic_polyphosphates_metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Homogentisate_pathway</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -1879,16 +1879,16 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Terpenoid_backbone_biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Folate_Biosynthesis</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -1898,16 +1898,16 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Cellulose_Metabolism</t>
+          <t>S_Nucleotide_Salvage_Pathway</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -1917,16 +1917,16 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>S_Nucleotide_Salvage_Pathway</t>
+          <t>S_Glycolysis</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -1936,16 +1936,16 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>S_Oxidative_Phosphorylation</t>
+          <t>S_Gluconeogenesis</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -1955,16 +1955,16 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Pantothenate_and_CoA_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Terpenoid_backbone_biosynthesis</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -1974,16 +1974,16 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Biomass and maintenance functions</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Queuosine_biosynthesis</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -1993,16 +1993,16 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>S_Pentose_Phosphate_Pathway</t>
+          <t>S_Inorganic_polyphosphates_metabolism</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -2012,16 +2012,16 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>S_Glutamate_Metabolism</t>
+          <t>S_Glyoxylate_and_dicarboxylate_metabolism</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -2031,16 +2031,16 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Ubiquinone_biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Thiamine_Metabolism</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Lipid_A_Biosynthesis</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -2069,16 +2069,16 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>S_Gluconeogenesis</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -2088,16 +2088,16 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__One_Carbon_pool_by_folate</t>
+          <t>S_Cell_Envelope_Biosynthesis__Cellulose_Metabolism</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -2107,16 +2107,16 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Thiamine_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Riboflavin_Metabolism</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -2126,7 +2126,64 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>S_Oxidative_Phosphorylation</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>S_Alternate_Carbon__Ribose_Metabolism</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Biotin_Biosynthesis</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2140,7 +2197,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2172,705 +2229,705 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S_Transport__Inner_Membrane</t>
+          <t>S_Alginate_biosynthesis</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5.222127874282415e-37</v>
+        <v>1.454489246459987e-14</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5038759689922481</v>
+        <v>0.85</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5038759689922481</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S_Transport__ABC_system</t>
+          <t>S_Fatty_Acid_Metabolism</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.124813596459993e-28</v>
+        <v>8.396866016649935e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4012738853503185</v>
+        <v>0.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4012738853503185</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Dipeptide_Metabolism</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.545074172208464e-24</v>
+        <v>6.939239818666666e-10</v>
       </c>
       <c r="D4" t="n">
-        <v>0.66</v>
+        <v>0.875</v>
       </c>
       <c r="E4" t="n">
-        <v>0.66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S_Sulfur_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Queuosine_biosynthesis</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4.910520153150802e-18</v>
+        <v>3.451566253961014e-08</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>S_Glycerophospholipid_Metabolism</t>
+          <t>S_Alternate_Carbon__Ascorbate_and_Aldarate_Metabolism</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3.60092310605645e-17</v>
+        <v>6.940330166700874e-06</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7241379310344828</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7241379310344828</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>S_Transport__Outer_Membrane</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2.67345083297826e-14</v>
+        <v>2.874718996166359e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5833333333333334</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>S_tRNA_Charging</t>
+          <t>S_Aromatic_Compounds_Degradation__Phenylacetyl_CoA_Catabolom</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.108721870888185e-11</v>
+        <v>0.000230848352329553</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6153846153846154</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Ascorbate_and_Aldarate_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Porphyrin_and_Chlorophyll_Metabolism</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.888182788438933e-10</v>
+        <v>0.0005950605625947284</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>S_Alginate_biosynthesis</t>
+          <t>S_Alternate_Carbon__Levulinate_Metabolism</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.799235911299752e-10</v>
+        <v>0.0006003523021702508</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.875</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6086956521739131</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Queuosine_biosynthesis</t>
+          <t>S_Aromatic_Compounds_Degradation__B_Ketoadipate_pathway</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.773118990055905e-08</v>
+        <v>0.0008312454485387075</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Porphyrin_and_Chlorophyll_Metabolism</t>
+          <t>Aliphatic open-chain ketones metabolism</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3.790392894996447e-08</v>
+        <v>0.001374599463722676</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4285714285714285</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4285714285714285</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Nucleotide_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__D_Amino_acids_Metabolism</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>9.927782362962035e-08</v>
+        <v>0.0014022113096113</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6923076923076923</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Phenylacetyl_CoA_Catabolom</t>
+          <t>S_tRNA_Charging</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.0621468525454e-07</v>
+        <v>0.002398868156287235</v>
       </c>
       <c r="D14" t="n">
-        <v>0.55</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="E14" t="n">
-        <v>0.55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>S_Xenobiotic_tolerance</t>
+          <t>S_Aromatic_Compounds_Degradation__Nicotinic_acid_pathway</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3.008599115548191e-07</v>
+        <v>0.006412915773260614</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7272727272727273</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Peptidoglycan_Biosynthesis</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Nucleotide_Metabolism</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.433793290984784e-06</v>
+        <v>0.00682695596196656</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4137931034482759</v>
+        <v>0.6</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4137931034482759</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>S_Methionine_Metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis__Peptidoglycan_Biosynthesis</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4.361534816808216e-06</v>
+        <v>0.008142976731962287</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5714285714285714</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Amines_and_Polyamines_Metabolism</t>
+          <t>S_Sulfur_Metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6.09917291716404e-06</v>
+        <v>0.008294108030219816</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3061224489795918</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3061224489795918</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>S_Fatty_Acid_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Hydroxy_proline_metabolism</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>6.504956549765808e-06</v>
+        <v>0.01923643400276562</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4347826086956522</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4347826086956522</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__B_Ketoadipate_pathway</t>
+          <t>S_Glycerophospholipid_Metabolism</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>7.297608079731764e-06</v>
+        <v>0.03415329145732562</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3928571428571428</v>
+        <v>0.335483870967742</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3928571428571428</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>S_Butanoate_Metabolism</t>
+          <t>S_Alternate_Carbon</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2.257787388547998e-05</v>
+        <v>0.03491868405043819</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6666666666666666</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>S_Pyruvate_Metabolism</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4.862479465467859e-05</v>
+        <v>0.04784839036501759</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__D_Amino_acids_Metabolism</t>
+          <t>S_Histidine_Metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>7.353720635942495e-05</v>
+        <v>0.05837877003326675</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7142857142857143</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>S_Pyrimidine_Metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Gallic_acid_Metabolism</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>9.976875780107128e-05</v>
+        <v>0.0615118529158203</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3333333333333333</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>S_Lysine_Metabolism</t>
+          <t>S_Nitrogen_Metabolism</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.0002442863015406163</v>
+        <v>0.0615118529158203</v>
       </c>
       <c r="D25" t="n">
-        <v>0.303030303030303</v>
+        <v>0.75</v>
       </c>
       <c r="E25" t="n">
-        <v>0.303030303030303</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>S_Heavy_Metal_Tolerance</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.0002540116338589234</v>
+        <v>0.07186024196435431</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3636363636363636</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3636363636363636</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon</t>
+          <t>S_Urea_cycleamino_group_metabolism</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.000382630291542298</v>
+        <v>0.08832398804908007</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5555555555555556</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Hydroxy_proline_metabolism</t>
+          <t>S_Methionine_Metabolism</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.0005840226416299519</v>
+        <v>0.1458816260659031</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Dipeptide_Metabolism</t>
+          <t>S_Alternate_Carbon__Fructose_Metabolism</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.0006357528366064189</v>
+        <v>0.1771078578875317</v>
       </c>
       <c r="D29" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6666666666666666</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>S_Pyruvate_Metabolism</t>
+          <t>S_Nucleotide_Salvage_Pathway</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.0007128025715681897</v>
+        <v>0.1990366523025451</v>
       </c>
       <c r="D30" t="n">
         <v>0.5</v>
       </c>
       <c r="E30" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>S_Purine_Metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Homogentisate_pathway</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.001364752840985053</v>
+        <v>0.1990366523025451</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.5</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2222222222222222</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>S_Plant_growth_promoting</t>
+          <t>S_Phosphonate_and_phosphinate_metabolism</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.002190216182555771</v>
+        <v>0.2927038628592432</v>
       </c>
       <c r="D32" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="E32" t="n">
-        <v>0.75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Gallic_acid_Metabolism</t>
+          <t>S_Plant_growth_promoting</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.002190216182555771</v>
+        <v>0.2927038628592432</v>
       </c>
       <c r="D33" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="E33" t="n">
-        <v>0.75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>S_Phenylalanine_Tyrosine_Tryptophan_Biosynthesis</t>
+          <t>S_Xenobiotic_tolerance</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.002714509425905706</v>
+        <v>0.3376922825209342</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2916666666666667</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>S_Cysteine_Metabolism</t>
+          <t>S_Heavy_Metal_Tolerance</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.004352558896615523</v>
+        <v>0.3468258320323148</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.3125</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4444444444444444</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Fructose_Metabolism</t>
+          <t>S_Transport__ABC_system</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.005135096930073362</v>
+        <v>0.3597322455884525</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6</v>
+        <v>0.2846715328467153</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Levulinate_Metabolism</t>
+          <t>S_Cysteine_Metabolism</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.005135096930073362</v>
+        <v>0.3671871984318918</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6</v>
+        <v>0.375</v>
       </c>
       <c r="E37" t="n">
-        <v>0.6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__LPS_Biosynthesis</t>
+          <t>S_Alternate_Carbon__Butanediol_Metabolism</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.01582124153349372</v>
+        <v>0.4645251355552903</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4285714285714285</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -2879,653 +2936,653 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>S_Phosphonate_and_phosphinate_metabolism</t>
+          <t>S_Pyrimidine_Metabolism</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.01983411376466547</v>
+        <v>0.4787404578236011</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.28</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6666666666666666</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>S_Iron_uptake_and_metabolism</t>
+          <t>S_Formaldehyde_Metabolism</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.02694455374845617</v>
+        <v>0.508798809663054</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1730769230769231</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1730769230769231</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>S_Nitrogen_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Vitamin_B6_Metabolism</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.03747801134677518</v>
+        <v>0.5284671849148652</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>S_Valine__Leucine__and_Isoleucine_Metabolism</t>
+          <t>S_Transport__solvent_extrusion</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.03838750661347008</v>
+        <v>0.5700014626094533</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2173913043478261</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2173913043478261</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>S_Oxidative_Phosphorylation</t>
+          <t>S_Alternate_Carbon__Propanoate_Metabolism</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.04385017363302111</v>
+        <v>0.5994898733312179</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1666666666666667</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>S_Transport__solvent_extrusion</t>
+          <t>S_Starch_and_Sucrose_Metabolism</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.05791671739451178</v>
+        <v>0.6029093183411653</v>
       </c>
       <c r="D44" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2222222222222222</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__Cellulose_Metabolism</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.05903995429124305</v>
+        <v>0.6082337743891697</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis</t>
+          <t>S_Purine_Metabolism</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.0804345078461252</v>
+        <v>0.6110682613303514</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2</v>
+        <v>0.2597402597402597</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Ectoine_Metabolism</t>
+          <t>S_Phenylalanine_Tyrosine_Tryptophan_Biosynthesis</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.08374271092509444</v>
+        <v>0.6147905684536814</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3333333333333333</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Toluene_Pathway</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Amines_and_Polyamines_Metabolism</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.08375269590222861</v>
+        <v>0.6620428031707714</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Aliphatic open-chain ketones metabolism</t>
+          <t>S_Alanine_and_Aspartate_Metabolism</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.08375269590222861</v>
+        <v>0.6769240982976601</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Thiamine_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.2017604019909419</v>
+        <v>0.7134104115658119</v>
       </c>
       <c r="D50" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>S_Arginine_and_Proline_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Ectoine_Metabolism</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.2214187473255743</v>
+        <v>0.7134104115658119</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1379310344827586</v>
+        <v>0.25</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1379310344827586</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>S_Alanine_and_Aspartate_Metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.2337056446675742</v>
+        <v>0.7201853418187153</v>
       </c>
       <c r="D52" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1818181818181818</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>S_PHAs_Metabolism</t>
+          <t>S_Transport__Outer_Membrane</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.2337056446675742</v>
+        <v>0.7733301452726153</v>
       </c>
       <c r="D53" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.2516556291390729</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1818181818181818</v>
+        <v>302</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>S_Glyoxylate_and_dicarboxylate_metabolism</t>
+          <t>S_Arginine_and_Proline_Metabolism</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.265909187613643</v>
+        <v>0.8029444224250315</v>
       </c>
       <c r="D54" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1666666666666667</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>S_Formaldehyde_Metabolism</t>
+          <t>S_Glycine__Serine_and_threonine_metabolism</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.265909187613643</v>
+        <v>0.8102340922466659</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1666666666666667</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>S_Nucleotide_Salvage_Pathway</t>
+          <t>S_Transport__Inner_Membrane</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.2952939312849286</v>
+        <v>0.8174098973930803</v>
       </c>
       <c r="D56" t="n">
-        <v>0.25</v>
+        <v>0.2442396313364055</v>
       </c>
       <c r="E56" t="n">
-        <v>0.25</v>
+        <v>217</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>S_Inorganic_polyphosphates_metabolism</t>
+          <t>S_Lysine_Metabolism</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.2952939312849286</v>
+        <v>0.8224610153298145</v>
       </c>
       <c r="D57" t="n">
-        <v>0.25</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="E57" t="n">
-        <v>0.25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>S_Glycolysis</t>
+          <t>S_Butanoate_Metabolism</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.3259524522777515</v>
+        <v>0.8466924282532418</v>
       </c>
       <c r="D58" t="n">
-        <v>0.125</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E58" t="n">
-        <v>0.125</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Lipid_A_Biosynthesis</t>
+          <t>S_Glycolysis</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.3300669214379147</v>
+        <v>0.8987237330139664</v>
       </c>
       <c r="D59" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E59" t="n">
-        <v>0.1428571428571428</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Butanediol_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Thiamine_Metabolism</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.3543574255333503</v>
+        <v>0.9180312477558531</v>
       </c>
       <c r="D60" t="n">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="E60" t="n">
-        <v>0.2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Nicotinic_acid_pathway</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Molybdopterin_Biosynthesis</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.4580752134172125</v>
+        <v>0.9230314788159422</v>
       </c>
       <c r="D61" t="n">
         <v>0.1428571428571428</v>
       </c>
       <c r="E61" t="n">
-        <v>0.1428571428571428</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__FeS_clusters_metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis__LPS_Biosynthesis</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.4580752134172125</v>
+        <v>0.9230314788159422</v>
       </c>
       <c r="D62" t="n">
         <v>0.1428571428571428</v>
       </c>
       <c r="E62" t="n">
-        <v>0.1428571428571428</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Vitamin_B6_Metabolism</t>
+          <t>S_Valine__Leucine__and_Isoleucine_Metabolism</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.5451614558477466</v>
+        <v>0.9381968068957247</v>
       </c>
       <c r="D63" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="E63" t="n">
-        <v>0.1111111111111111</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>S_Glycine__Serine_and_threonine_metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis__Lipid_A_Biosynthesis</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.5855686214813061</v>
+        <v>0.9403849229035232</v>
       </c>
       <c r="D64" t="n">
-        <v>0.08695652173913043</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E64" t="n">
-        <v>0.08695652173913043</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>S_Fatty_Acid__Biosynthesis</t>
+          <t>S_Oxidative_Phosphorylation</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.6317350378259434</v>
+        <v>0.956195955432565</v>
       </c>
       <c r="D65" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="E65" t="n">
-        <v>0.08</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Molybdopterin_Biosynthesis</t>
+          <t>S_Glyoxylate_and_dicarboxylate_metabolism</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.6796624585151061</v>
+        <v>0.9679841539191733</v>
       </c>
       <c r="D66" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E66" t="n">
-        <v>0.07692307692307693</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>S_TCA_Cycle</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Nicotinamide_Biosynthesis</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.6933166511827857</v>
+        <v>0.9829037067817407</v>
       </c>
       <c r="D67" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="E67" t="n">
-        <v>0.07142857142857142</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>S_Starch_and_Sucrose_Metabolism</t>
+          <t>S_PHAs_Metabolism</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.7065544229056591</v>
+        <v>0.9850913967740433</v>
       </c>
       <c r="D68" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.1973684210526316</v>
       </c>
       <c r="E68" t="n">
-        <v>0.07142857142857142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Folate_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__O_antigen_Biosynthesis</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.7065544229056591</v>
+        <v>0.9908752870559374</v>
       </c>
       <c r="D69" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E69" t="n">
-        <v>0.07142857142857142</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__O_antigen_Biosynthesis</t>
+          <t>S_Aromatic_Compounds_Degradation__Toluene_Pathway</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.7065544229056591</v>
+        <v>0.9990171965389023</v>
       </c>
       <c r="D70" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E70" t="n">
-        <v>0.07142857142857142</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>S_Urea_cycleamino_group_metabolism</t>
+          <t>S_Fatty_Acid__Biosynthesis</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.7537674222026598</v>
+        <v>0.9998615198842876</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0625</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0625</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Cellulose_Metabolism</t>
+          <t>S_Iron_uptake_and_metabolism</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0.9999720740335397</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>0.09210526315789473</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis___Pyrroloquinoline_quinone_biosynthesis</t>
+          <t>S_TCA_Cycle</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -3535,16 +3592,16 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Homogentisate_pathway</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Pantothenate_and_CoA_Biosynthesis</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -3554,16 +3611,16 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Ribose_Metabolism</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -3573,16 +3630,16 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>S_Gluconeogenesis</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -3592,16 +3649,16 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Propanoate_Metabolism</t>
+          <t>S_Alternate_Carbon__Ribose_Metabolism</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -3611,16 +3668,16 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Pantothenate_and_CoA_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Riboflavin_Metabolism</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -3630,16 +3687,16 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Biotin_Biosynthesis</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -3649,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__One_Carbon_pool_by_folate</t>
+          <t>S_Inorganic_polyphosphates_metabolism</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -3668,16 +3725,16 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Ubiquinone_biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Terpenoid_backbone_biosynthesis</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -3687,16 +3744,16 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Riboflavin_Metabolism</t>
+          <t>S_Gluconeogenesis</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -3706,16 +3763,16 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Nicotinamide_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Folate_Biosynthesis</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -3725,16 +3782,16 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Biosynthesis_of_L_glycero_D_manno_heptose__Hep_</t>
+          <t>S_Pentose_Phosphate_Pathway</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -3744,16 +3801,16 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Biomass and maintenance functions</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Ubiquinone_biosynthesis</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -3763,16 +3820,16 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>S_Glutamate_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis___Pyrroloquinoline_quinone_biosynthesis</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -3782,16 +3839,16 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Terpenoid_backbone_biosynthesis</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -3801,16 +3858,16 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>348</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>S_Pentose_Phosphate_Pathway</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__One_Carbon_pool_by_folate</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -3820,16 +3877,16 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>S_Histidine_Metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis__Biosynthesis_of_L_glycero_D_manno_heptose__Hep_</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -3839,7 +3896,64 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>S_Glutamate_Metabolism</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__FeS_clusters_metabolism</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Biotin_Biosynthesis</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3853,7 +3967,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3885,1185 +3999,1185 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S_Transport__ABC_system</t>
+          <t>S_Fatty_Acid_Metabolism</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8.893199298012759e-81</v>
+        <v>2.38064552263161e-40</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6878980891719745</v>
+        <v>0.638095238095238</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6878980891719745</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Amines_and_Polyamines_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Dipeptide_Metabolism</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.568454120877645e-36</v>
+        <v>2.438037612526919e-11</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8367346938775511</v>
+        <v>0.875</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8367346938775511</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S_Transport__Inner_Membrane</t>
+          <t>S_Sulfur_Metabolism</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6.855492208005091e-25</v>
+        <v>8.970432417063674e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4186046511627907</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4186046511627907</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>S_Aromatic_Compounds_Degradation__B_Ketoadipate_pathway</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0001180207031790299</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5769230769230769</v>
+      </c>
+      <c r="E5" t="n">
         <v>26</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Unassigned</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2.728233628567381e-14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>S_Sulfur_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Amines_and_Polyamines_Metabolism</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.825230809821592e-11</v>
+        <v>0.0001338384388311675</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>S_Glycerophospholipid_Metabolism</t>
+          <t>S_Alternate_Carbon__Levulinate_Metabolism</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2.472998759059553e-09</v>
+        <v>0.0001978285317724424</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5172413793103449</v>
+        <v>0.875</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5172413793103449</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>S_Transport__Outer_Membrane</t>
+          <t>S_Transport__ABC_system</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.19727176476792e-08</v>
+        <v>0.0002741651241917144</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.3576642335766423</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4444444444444444</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>S_Cysteine_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__D_Amino_acids_Metabolism</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.584873554432239e-08</v>
+        <v>0.0003394364697747045</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8888888888888888</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__D_Amino_acids_Metabolism</t>
+          <t>Aliphatic open-chain ketones metabolism</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3.621755976768777e-08</v>
+        <v>0.0006028459858026111</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>S_Valine__Leucine__and_Isoleucine_Metabolism</t>
+          <t>S_Alternate_Carbon__Ascorbate_and_Aldarate_Metabolism</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>9.125717410698836e-08</v>
+        <v>0.0007150661298138273</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5217391304347826</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5217391304347826</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>S_Fatty_Acid_Metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Gallic_acid_Metabolism</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>9.125717410698836e-08</v>
+        <v>0.002661810901058961</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5217391304347826</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5217391304347826</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>S_Xenobiotic_tolerance</t>
+          <t>S_Plant_growth_promoting</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4.045516121414704e-07</v>
+        <v>0.002661810901058961</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7272727272727273</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7272727272727273</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Ascorbate_and_Aldarate_Metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Nicotinic_acid_pathway</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.115433388588588e-06</v>
+        <v>0.002935212128683692</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7777777777777778</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__B_Ketoadipate_pathway</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Hydroxy_proline_metabolism</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.367388479545636e-06</v>
+        <v>0.01173926858928567</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4285714285714285</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4285714285714285</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Nicotinic_acid_pathway</t>
+          <t>S_Cell_Envelope_Biosynthesis__Peptidoglycan_Biosynthesis</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.730561545832494e-06</v>
+        <v>0.01301916026890399</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8571428571428571</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>S_Heavy_Metal_Tolerance</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5.605308100191572e-06</v>
+        <v>0.01743607901829951</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4545454545454545</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Dipeptide_Metabolism</t>
+          <t>S_Heavy_Metal_Tolerance</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2.721831538756793e-05</v>
+        <v>0.04205282897555587</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.375</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8333333333333334</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Nucleotide_Metabolism</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3.895778301504759e-05</v>
+        <v>0.05171289250551294</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5384615384615384</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5384615384615384</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Gallic_acid_Metabolism</t>
+          <t>S_Xenobiotic_tolerance</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5.661148486247706e-05</v>
+        <v>0.08142288684030177</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>S_Plant_growth_promoting</t>
+          <t>S_Alternate_Carbon</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5.661148486247706e-05</v>
+        <v>0.152638446695367</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>S_Urea_cycleamino_group_metabolism</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5.661148486247706e-05</v>
+        <v>0.1982589586215339</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>S_Lysine_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Ectoine_Metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>6.348646368829243e-05</v>
+        <v>0.2243486390219692</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3333333333333333</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>S_Methionine_Metabolism</t>
+          <t>S_Phosphonate_and_phosphinate_metabolism</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>7.210487596660871e-05</v>
+        <v>0.2243486390219692</v>
       </c>
       <c r="D24" t="n">
         <v>0.5</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Peptidoglycan_Biosynthesis</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Nucleotide_Metabolism</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>9.917706848713005e-05</v>
+        <v>0.2415740045425645</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3448275862068966</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3448275862068966</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>S_Butanoate_Metabolism</t>
+          <t>S_Cysteine_Metabolism</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.0004575274568629043</v>
+        <v>0.2663422055548669</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.375</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5555555555555556</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Hydroxy_proline_metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Phenylacetyl_CoA_Catabolom</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.0006545040900628584</v>
+        <v>0.3406391133884711</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Phenylacetyl_CoA_Catabolom</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Nicotinamide_Biosynthesis</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.001025233138926312</v>
+        <v>0.3406391133884711</v>
       </c>
       <c r="D28" t="n">
-        <v>0.35</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="E28" t="n">
-        <v>0.35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>S_Phenylalanine_Tyrosine_Tryptophan_Biosynthesis</t>
+          <t>S_Methionine_Metabolism</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.003369525831062973</v>
+        <v>0.3987554485144658</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2916666666666667</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Molybdopterin_Biosynthesis</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.004998468338007939</v>
+        <v>0.3987554485144658</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4444444444444444</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Levulinate_Metabolism</t>
+          <t>S_Valine__Leucine__and_Isoleucine_Metabolism</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.005725192562296453</v>
+        <v>0.4006675236992293</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis</t>
+          <t>S_Alternate_Carbon__Butanediol_Metabolism</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.005725192562296453</v>
+        <v>0.4033605615430009</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>S_Purine_Metabolism</t>
+          <t>S_Pyruvate_Metabolism</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.005878550699349295</v>
+        <v>0.4121176946857898</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2037037037037037</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2037037037037037</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>S_Arginine_and_Proline_Metabolism</t>
+          <t>S_Formaldehyde_Metabolism</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.01038875161962662</v>
+        <v>0.4121176946857898</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2413793103448276</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2413793103448276</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>S_Pyrimidine_Metabolism</t>
+          <t>S_Starch_and_Sucrose_Metabolism</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.01256298155278894</v>
+        <v>0.4559123372315207</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2333333333333333</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>S_Phosphonate_and_phosphinate_metabolism</t>
+          <t>S_Transport__Outer_Membrane</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.02134878278831589</v>
+        <v>0.5083159568863944</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.228476821192053</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6666666666666666</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>S_Alginate_biosynthesis</t>
+          <t>S_Alternate_Carbon__Fructose_Metabolism</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.04416980216086708</v>
+        <v>0.5392107721455178</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2173913043478261</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2173913043478261</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>S_Urea_cycleamino_group_metabolism</t>
+          <t>S_Alanine_and_Aspartate_Metabolism</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.04432271656204607</v>
+        <v>0.5747675169637004</v>
       </c>
       <c r="D38" t="n">
         <v>0.25</v>
       </c>
       <c r="E38" t="n">
-        <v>0.25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>S_Pyruvate_Metabolism</t>
+          <t>S_Phenylalanine_Tyrosine_Tryptophan_Biosynthesis</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.04944285431149499</v>
+        <v>0.6013581473402279</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Fructose_Metabolism</t>
+          <t>S_Arginine_and_Proline_Metabolism</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.06326551107674867</v>
+        <v>0.6397817787809856</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>S_PHAs_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.06371877653470329</v>
+        <v>0.6441648165200338</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.25</v>
       </c>
       <c r="E41" t="n">
-        <v>0.2727272727272727</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>S_Alanine_and_Aspartate_Metabolism</t>
+          <t>S_Nitrogen_Metabolism</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.06371877653470329</v>
+        <v>0.6441648165200338</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.25</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2727272727272727</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>S_Transport__solvent_extrusion</t>
+          <t>S_Transport__Inner_Membrane</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.06497136823388526</v>
+        <v>0.682140300467861</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2165898617511521</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2222222222222222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Porphyrin_and_Chlorophyll_Metabolism</t>
+          <t>S_Pyrimidine_Metabolism</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.07850654033154263</v>
+        <v>0.7322984097602728</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1714285714285714</v>
+        <v>0.2</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1714285714285714</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Toluene_Pathway</t>
+          <t>S_Transport__solvent_extrusion</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.08698777857656362</v>
+        <v>0.7387161170785778</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Aliphatic open-chain ketones metabolism</t>
+          <t>S_Purine_Metabolism</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.08698777857656362</v>
+        <v>0.7951936311254182</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0.1948051948051948</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Ectoine_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Porphyrin_and_Chlorophyll_Metabolism</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.08954111793930254</v>
+        <v>0.7953372193456092</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3333333333333333</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Pantothenate_and_CoA_Biosynthesis</t>
+          <t>S_Lysine_Metabolism</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.09712327542427719</v>
+        <v>0.7959280159127831</v>
       </c>
       <c r="D48" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2307692307692308</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__FeS_clusters_metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.1183374433299445</v>
+        <v>0.8322325985656737</v>
       </c>
       <c r="D49" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2857142857142857</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Queuosine_biosynthesis</t>
+          <t>S_Alternate_Carbon__Propanoate_Metabolism</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.1183374433299445</v>
+        <v>0.8362333354700614</v>
       </c>
       <c r="D50" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2857142857142857</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Homogentisate_pathway</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__FeS_clusters_metabolism</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.1490191498713205</v>
+        <v>0.8735855952566843</v>
       </c>
       <c r="D51" t="n">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="E51" t="n">
-        <v>0.25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Nicotinamide_Biosynthesis</t>
+          <t>S_Glycine__Serine_and_threonine_metabolism</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.1810419780089203</v>
+        <v>0.8878929421813573</v>
       </c>
       <c r="D52" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2222222222222222</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Vitamin_B6_Metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis__Lipid_A_Biosynthesis</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.1810419780089203</v>
+        <v>0.8878929421813573</v>
       </c>
       <c r="D53" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2222222222222222</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Vitamin_B6_Metabolism</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.2497018938297515</v>
+        <v>0.9246979569518388</v>
       </c>
       <c r="D54" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="E54" t="n">
-        <v>0.15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>S_Glyoxylate_and_dicarboxylate_metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Pantothenate_and_CoA_Biosynthesis</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.2808584221734374</v>
+        <v>0.9246979569518388</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1666666666666667</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>S_Formaldehyde_Metabolism</t>
+          <t>S_Glycolysis</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.2808584221734374</v>
+        <v>0.9401138305834866</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1666666666666667</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>S_Nitrogen_Metabolism</t>
+          <t>S_Glyoxylate_and_dicarboxylate_metabolism</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.3051969372447602</v>
+        <v>0.9418906757280044</v>
       </c>
       <c r="D57" t="n">
-        <v>0.25</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E57" t="n">
-        <v>0.25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Molybdopterin_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Queuosine_biosynthesis</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.3142648124914665</v>
+        <v>0.9654067217543046</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="E58" t="n">
-        <v>0.1538461538461539</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>S_Glycine__Serine_and_threonine_metabolism</t>
+          <t>S_Alginate_biosynthesis</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.3232895095941545</v>
+        <v>0.9674428678506045</v>
       </c>
       <c r="D59" t="n">
-        <v>0.1304347826086956</v>
+        <v>0.125</v>
       </c>
       <c r="E59" t="n">
-        <v>0.1304347826086956</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Lipid_A_Biosynthesis</t>
+          <t>S_Glycerophospholipid_Metabolism</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.3473126252397277</v>
+        <v>0.9758222383699626</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.167741935483871</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1428571428571428</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Butanediol_Metabolism</t>
+          <t>S_Glutamate_Metabolism</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.3656797937867631</v>
+        <v>0.9877551466412272</v>
       </c>
       <c r="D61" t="n">
-        <v>0.2</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="E61" t="n">
-        <v>0.2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Propanoate_Metabolism</t>
+          <t>S_Histidine_Metabolism</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.4209075289562552</v>
+        <v>0.9877551466412272</v>
       </c>
       <c r="D62" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="E62" t="n">
-        <v>0.1666666666666667</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>S_Iron_uptake_and_metabolism</t>
+          <t>S_TCA_Cycle</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.477218942773376</v>
+        <v>0.9943868039555201</v>
       </c>
       <c r="D63" t="n">
-        <v>0.09615384615384616</v>
+        <v>0.05</v>
       </c>
       <c r="E63" t="n">
-        <v>0.09615384615384616</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -5071,117 +5185,117 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.6530348473892994</v>
+        <v>0.994557339117939</v>
       </c>
       <c r="D64" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="E64" t="n">
-        <v>0.08</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>S_tRNA_Charging</t>
+          <t>S_Aromatic_Compounds_Degradation__Toluene_Pathway</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.6743736947583583</v>
+        <v>0.9958783702988095</v>
       </c>
       <c r="D65" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E65" t="n">
-        <v>0.07692307692307693</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Folate_Biosynthesis</t>
+          <t>S_tRNA_Charging</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.7207492250350164</v>
+        <v>0.9974292052727789</v>
       </c>
       <c r="D66" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="E66" t="n">
-        <v>0.07142857142857142</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>S_Starch_and_Sucrose_Metabolism</t>
+          <t>S_PHAs_Metabolism</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.7207492250350164</v>
+        <v>0.999856424894033</v>
       </c>
       <c r="D67" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.1184210526315789</v>
       </c>
       <c r="E67" t="n">
-        <v>0.07142857142857142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>S_Histidine_Metabolism</t>
+          <t>S_Iron_uptake_and_metabolism</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.7876322533985168</v>
+        <v>0.9998634997713162</v>
       </c>
       <c r="D68" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="E68" t="n">
-        <v>0.05882352941176471</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>S_Glycolysis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Ubiquinone_biosynthesis</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.8879583267974306</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>0.04166666666666666</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0.04166666666666666</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis___Pyrroloquinoline_quinone_biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__Biosynthesis_of_L_glycero_D_manno_heptose__Hep_</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -5191,16 +5305,16 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Ribose_Metabolism</t>
+          <t>S_Butanoate_Metabolism</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -5210,16 +5324,16 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>S_Inorganic_polyphosphates_metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis___Pyrroloquinoline_quinone_biosynthesis</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -5229,7 +5343,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73">
@@ -5238,7 +5352,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>S_TCA_Cycle</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -5248,16 +5362,16 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>348</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>S_Gluconeogenesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__One_Carbon_pool_by_folate</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -5267,16 +5381,16 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>S_Nucleotide_Salvage_Pathway</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -5286,16 +5400,16 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__One_Carbon_pool_by_folate</t>
+          <t>S_Gluconeogenesis</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -5305,16 +5419,16 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Biotin_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Folate_Biosynthesis</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -5324,16 +5438,16 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Riboflavin_Metabolism</t>
+          <t>S_Alternate_Carbon__Ribose_Metabolism</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -5343,16 +5457,16 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>S_Pentose_Phosphate_Pathway</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Thiamine_Metabolism</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -5362,16 +5476,16 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__O_antigen_Biosynthesis</t>
+          <t>S_Oxidative_Phosphorylation</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -5381,16 +5495,16 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Biomass and maintenance functions</t>
+          <t>S_Cell_Envelope_Biosynthesis__LPS_Biosynthesis</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -5400,16 +5514,16 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>S_Glutamate_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Riboflavin_Metabolism</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -5419,16 +5533,16 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__LPS_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__Cellulose_Metabolism</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -5438,16 +5552,16 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Biosynthesis_of_L_glycero_D_manno_heptose__Hep_</t>
+          <t>S_Nucleotide_Salvage_Pathway</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -5457,16 +5571,16 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Terpenoid_backbone_biosynthesis</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -5476,7 +5590,7 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -5485,7 +5599,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Cellulose_Metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -5495,16 +5609,16 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>S_Oxidative_Phosphorylation</t>
+          <t>S_Pentose_Phosphate_Pathway</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -5514,16 +5628,16 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Thiamine_Metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis__O_antigen_Biosynthesis</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -5533,16 +5647,16 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Ubiquinone_biosynthesis</t>
+          <t>S_Inorganic_polyphosphates_metabolism</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -5552,7 +5666,64 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Terpenoid_backbone_biosynthesis</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>S_Aromatic_Compounds_Degradation__Homogentisate_pathway</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Biotin_Biosynthesis</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
